--- a/Modeli pretnji/PostService.xlsx
+++ b/Modeli pretnji/PostService.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{F9D2A483-B74C-4087-A3F3-C553D3DCDCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D16301-2F5B-44CE-8F98-0D5D06A61F4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D9ED4-7CC7-4789-AB66-27CD0EEB978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,12 @@
     <sheet name="Threats" sheetId="4" r:id="rId4"/>
     <sheet name="Risks" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="137">
   <si>
     <t>DISLINKT - Poslovna društvena mreža</t>
   </si>
@@ -532,12 +530,15 @@
   <si>
     <t>Potrebno je implementirati monitoring kako bi se uočili ovakvi tipovi zahteva.</t>
   </si>
+  <si>
+    <t>Stefan Ljubović</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,15 +974,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,33 +1019,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1054,27 +1055,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1082,15 +1092,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,28 +1113,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5495925" cy="3995057"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B673FA-5AC9-DDD4-986E-1554C0FD6A82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C152D437-4D2A-463C-88FB-0525F1E254D9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F3685E86-F2F9-55CE-DF7A-4E34E36CB92D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{18B673FA-5AC9-DDD4-986E-1554C0FD6A82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,8 +1145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1628775" y="219075"/>
-          <a:ext cx="5276850" cy="3162300"/>
+          <a:off x="1477736" y="4010025"/>
+          <a:ext cx="5495925" cy="3995057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,29 +1154,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152363</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE1DC29-9055-251D-CC57-F2E4C5C6BF86}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{18B673FA-5AC9-DDD4-986E-1554C0FD6A82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC04DB5-28D4-455B-BC93-55EBEFFB1A9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,8 +1189,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="3924300"/>
-          <a:ext cx="5495925" cy="3905250"/>
+          <a:off x="2166258" y="304800"/>
+          <a:ext cx="4321591" cy="3322319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>531941</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6664640C-7DF6-43EB-A4D2-35809ACFF093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1055914" y="3962400"/>
+          <a:ext cx="6421113" cy="4069080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1532,23 +1569,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="128.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="128.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
@@ -1564,33 +1601,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +1637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1617,36 +1656,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
-    <col min="5" max="10" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1657,28 +1696,28 @@
         <v>13</v>
       </c>
       <c r="E2" s="35"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+      <c r="C3" s="40"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1688,14 +1727,14 @@
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1705,29 +1744,29 @@
       <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="C6" s="38"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1737,14 +1776,14 @@
       <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1754,29 +1793,29 @@
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9" s="38"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
@@ -1786,14 +1825,14 @@
       <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1803,14 +1842,14 @@
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.9">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -1820,27 +1859,27 @@
       <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -1850,7 +1889,7 @@
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="35"/>
@@ -1859,7 +1898,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" spans="1:10" ht="30.75">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>1</v>
       </c>
@@ -1876,7 +1915,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1932,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -1910,7 +1949,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -1927,27 +1966,27 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="46"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -1955,14 +1994,14 @@
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="43"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -1970,14 +2009,14 @@
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:10" ht="60" customHeight="1">
+    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="44"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -1985,14 +2024,14 @@
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:10" ht="96.75" customHeight="1">
+    <row r="23" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="44"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
@@ -2000,14 +2039,14 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="43"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -2015,14 +2054,14 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="47"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -2030,14 +2069,14 @@
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:10" ht="122.45" customHeight="1">
+    <row r="26" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="47"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
@@ -2045,9 +2084,16 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:10" ht="15"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E20:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E14:J17"/>
     <mergeCell ref="E19:J19"/>
@@ -2059,14 +2105,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E20:J26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2075,18 +2113,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:T44"/>
+  <dimension ref="B1:T68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="P22" sqref="P22:T44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="49" t="s">
         <v>57</v>
       </c>
@@ -2103,15 +2141,15 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-    </row>
-    <row r="2" spans="2:20">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -2125,7 +2163,7 @@
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="34" t="s">
         <v>58</v>
       </c>
       <c r="Q2" s="48"/>
@@ -2133,7 +2171,7 @@
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -2153,7 +2191,7 @@
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -2173,7 +2211,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="48"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -2193,7 +2231,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -2213,7 +2251,7 @@
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -2233,7 +2271,7 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -2253,7 +2291,7 @@
       <c r="S8" s="48"/>
       <c r="T8" s="48"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
@@ -2273,7 +2311,7 @@
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
@@ -2293,7 +2331,7 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
@@ -2313,7 +2351,7 @@
       <c r="S11" s="48"/>
       <c r="T11" s="48"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -2333,7 +2371,7 @@
       <c r="S12" s="48"/>
       <c r="T12" s="48"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -2353,7 +2391,7 @@
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -2373,7 +2411,7 @@
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
@@ -2393,7 +2431,7 @@
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
@@ -2413,7 +2451,7 @@
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -2433,7 +2471,7 @@
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -2453,7 +2491,7 @@
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -2473,7 +2511,7 @@
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -2493,7 +2531,7 @@
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>59</v>
       </c>
@@ -2509,13 +2547,13 @@
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -2530,12 +2568,12 @@
       <c r="M22" s="52"/>
       <c r="N22" s="53"/>
       <c r="P22" s="35"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -2549,13 +2587,13 @@
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
       <c r="N23" s="56"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -2569,13 +2607,13 @@
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
       <c r="N24" s="56"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
@@ -2589,13 +2627,13 @@
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
       <c r="N25" s="56"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="54"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -2609,13 +2647,13 @@
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
       <c r="N26" s="56"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="54"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -2629,13 +2667,13 @@
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
       <c r="N27" s="56"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -2649,13 +2687,13 @@
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
       <c r="N28" s="56"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -2669,13 +2707,13 @@
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
       <c r="N29" s="56"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -2689,13 +2727,13 @@
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
       <c r="N30" s="56"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -2709,13 +2747,13 @@
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
       <c r="N31" s="56"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -2729,13 +2767,13 @@
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="56"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="54"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -2749,13 +2787,13 @@
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
       <c r="N33" s="56"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="54"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -2769,13 +2807,13 @@
       <c r="L34" s="55"/>
       <c r="M34" s="55"/>
       <c r="N34" s="56"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="54"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
@@ -2789,13 +2827,13 @@
       <c r="L35" s="55"/>
       <c r="M35" s="55"/>
       <c r="N35" s="56"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="54"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -2809,13 +2847,13 @@
       <c r="L36" s="55"/>
       <c r="M36" s="55"/>
       <c r="N36" s="56"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="54"/>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
@@ -2829,13 +2867,13 @@
       <c r="L37" s="55"/>
       <c r="M37" s="55"/>
       <c r="N37" s="56"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="54"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -2849,13 +2887,13 @@
       <c r="L38" s="55"/>
       <c r="M38" s="55"/>
       <c r="N38" s="56"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="54"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
@@ -2869,13 +2907,13 @@
       <c r="L39" s="55"/>
       <c r="M39" s="55"/>
       <c r="N39" s="56"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="54"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -2889,13 +2927,13 @@
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
       <c r="N40" s="56"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="54"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -2909,13 +2947,13 @@
       <c r="L41" s="55"/>
       <c r="M41" s="55"/>
       <c r="N41" s="56"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="54"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
@@ -2929,13 +2967,13 @@
       <c r="L42" s="55"/>
       <c r="M42" s="55"/>
       <c r="N42" s="56"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-    </row>
-    <row r="43" spans="2:20">
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="54"/>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -2949,13 +2987,13 @@
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="56"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="57"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58"/>
@@ -2969,14 +3007,378 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="53"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="56"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="56"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="56"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="56"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="56"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="56"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="56"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="56"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="56"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="56"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="56"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="56"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="56"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="56"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="56"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="56"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="56"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="54"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="56"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="56"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="56"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B46:N68"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="P2:T20"/>
     <mergeCell ref="P21:T21"/>
@@ -3000,31 +3402,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3037,14 +3439,14 @@
       <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3057,32 +3459,32 @@
       <c r="D3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:11" ht="56.45" customHeight="1">
+      <c r="D4" s="60"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -3093,32 +3495,32 @@
         <v>70</v>
       </c>
       <c r="D5" s="61"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:11" ht="56.45" customHeight="1">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.9">
+      <c r="D6" s="72"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -3129,42 +3531,42 @@
         <v>75</v>
       </c>
       <c r="D7" s="61"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-    </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-    </row>
-    <row r="9" spans="1:11" ht="49.15" customHeight="1">
+      <c r="D8" s="70"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="72"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3172,7 +3574,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
+    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3192,7 +3594,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="16.899999999999999" customHeight="1">
+    <row r="11" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3212,17 +3614,17 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="16.899999999999999" customHeight="1">
+    <row r="12" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="60"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3230,17 +3632,17 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="46.9" customHeight="1">
+    <row r="13" spans="1:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="66"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -3248,7 +3650,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="21.6" customHeight="1">
+    <row r="14" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -3268,7 +3670,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="16.149999999999999" customHeight="1">
+    <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>86</v>
       </c>
@@ -3288,17 +3690,17 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="17.45" customHeight="1">
+    <row r="16" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="60"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -3306,7 +3708,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="48.6" customHeight="1">
+    <row r="17" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -3324,7 +3726,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -3344,7 +3746,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -3364,17 +3766,17 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="67"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -3382,8 +3784,8 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="45" customHeight="1">
-      <c r="A21" s="60" t="s">
+    <row r="21" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="61" t="s">
@@ -3400,8 +3802,8 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
       <c r="B22" s="61"/>
       <c r="C22" s="64"/>
       <c r="D22" s="65"/>
@@ -3412,8 +3814,8 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="61" t="s">
@@ -3424,13 +3826,13 @@
       </c>
       <c r="D23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
       <c r="B24" s="61"/>
       <c r="C24" s="64"/>
       <c r="D24" s="65"/>
     </row>
-    <row r="25" spans="1:11" ht="49.9" customHeight="1">
+    <row r="25" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -3442,7 +3844,7 @@
       </c>
       <c r="D25" s="61"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -3470,19 +3872,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="66"/>
-    </row>
-    <row r="29" spans="1:11" ht="28.9">
+      <c r="D28" s="60"/>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>103</v>
       </c>
@@ -3494,7 +3896,7 @@
       </c>
       <c r="D29" s="61"/>
     </row>
-    <row r="30" spans="1:11" ht="28.9">
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>106</v>
       </c>
@@ -3506,7 +3908,7 @@
       </c>
       <c r="D30" s="61"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
@@ -3520,7 +3922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>109</v>
       </c>
@@ -3534,19 +3936,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="66"/>
-    </row>
-    <row r="34" spans="1:4" ht="46.9" customHeight="1">
+      <c r="D33" s="60"/>
+    </row>
+    <row r="34" spans="1:4" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -3560,6 +3962,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F2:K8"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C12:D12"/>
@@ -3569,23 +3988,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F2:K8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3597,30 +3999,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>116</v>
       </c>
@@ -3643,7 +4045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60.6" customHeight="1">
+    <row r="3" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3666,7 +4068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52.5" customHeight="1">
+    <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -3689,7 +4091,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="49.9" customHeight="1">
+    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -3712,7 +4114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1">
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -3735,7 +4137,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.45" customHeight="1">
+    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -3758,7 +4160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.9" customHeight="1">
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -3781,7 +4183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3790,7 +4192,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -3799,7 +4201,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -3808,7 +4210,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -3817,7 +4219,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3826,7 +4228,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3835,7 +4237,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3844,7 +4246,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3853,7 +4255,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3862,7 +4264,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3871,7 +4273,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3880,7 +4282,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3889,7 +4291,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3898,7 +4300,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3907,7 +4309,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
